--- a/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H2">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.51624470470014</v>
+        <v>2.418393</v>
       </c>
       <c r="N2">
-        <v>1.51624470470014</v>
+        <v>7.255179</v>
       </c>
       <c r="O2">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="P2">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="Q2">
-        <v>1.106854497599359</v>
+        <v>2.014581828825</v>
       </c>
       <c r="R2">
-        <v>1.106854497599359</v>
+        <v>18.131236459425</v>
       </c>
       <c r="S2">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
       <c r="T2">
-        <v>0.06123730472313581</v>
+        <v>0.0919828589765645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H3">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.939889347266099</v>
+        <v>10.11799233333333</v>
       </c>
       <c r="N3">
-        <v>9.939889347266099</v>
+        <v>30.353977</v>
       </c>
       <c r="O3">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="P3">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="Q3">
-        <v>7.256092104102187</v>
+        <v>8.428540563475002</v>
       </c>
       <c r="R3">
-        <v>7.256092104102187</v>
+        <v>75.85686507127501</v>
       </c>
       <c r="S3">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
       <c r="T3">
-        <v>0.4014470955683658</v>
+        <v>0.3848348311969811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H4">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.3040135664722</v>
+        <v>13.75539366666667</v>
       </c>
       <c r="N4">
-        <v>13.3040135664722</v>
+        <v>41.266181</v>
       </c>
       <c r="O4">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="P4">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="Q4">
-        <v>9.711893605646491</v>
+        <v>11.458586809175</v>
       </c>
       <c r="R4">
-        <v>9.711893605646491</v>
+        <v>103.127281282575</v>
       </c>
       <c r="S4">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
       <c r="T4">
-        <v>0.5373155997084985</v>
+        <v>0.5231823098264544</v>
       </c>
     </row>
   </sheetData>
